--- a/conf/preg/docInf.xlsx
+++ b/conf/preg/docInf.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>#define default document conclusion</t>
   </si>
@@ -47,6 +47,12 @@
   </si>
   <si>
     <t>IUD_Pos_Doc</t>
+  </si>
+  <si>
+    <t>IUD_REINSERT</t>
+  </si>
+  <si>
+    <t>IUD_REMOVE</t>
   </si>
   <si>
     <t>IUD_Present</t>
@@ -156,19 +162,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.9183673469388"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -220,6 +225,40 @@
         <v>9</v>
       </c>
       <c r="E5" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>7</v>
       </c>
     </row>
